--- a/base_auditoria.xlsx
+++ b/base_auditoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dashboard_auditoria\github-auditoria\dashboardauditorialm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7486A851-17A6-4EE9-89A1-695EE1112E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC74EF5-0C61-43BA-8F37-71D085FA18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C1462F1F-6FCF-4E44-A39A-D2BBC1753B3B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Melhorias_Logistica" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Auditoria_Risco!$A$1:$G$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Auditoria_Risco!$A$1:$G$268</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist_Unidades!$A$1:$I$2516</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Melhorias_Logistica!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Politicas!$A$1:$G$1</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16549" uniqueCount="2491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16629" uniqueCount="2508">
   <si>
     <t>Unidade</t>
   </si>
@@ -7602,6 +7602,57 @@
   </si>
   <si>
     <t>RISK-256</t>
+  </si>
+  <si>
+    <t>LOG-009</t>
+  </si>
+  <si>
+    <t>Implantação do modulo solicitaçâo de cotaçâo no APP  - Plano projeto</t>
+  </si>
+  <si>
+    <t>Agilidade na resposta, economia de papel, fim de trocas de e-mails</t>
+  </si>
+  <si>
+    <t>LOG-010</t>
+  </si>
+  <si>
+    <t>Automoção da auditoria Faturamento sem financeiro - Gestão de risco</t>
+  </si>
+  <si>
+    <t>Reduziu riscos operacionais e aumentou a eficiência e confiabilidade da auditoria de faturamento sem financeiro</t>
+  </si>
+  <si>
+    <t>RISK-257</t>
+  </si>
+  <si>
+    <t>RISK-258</t>
+  </si>
+  <si>
+    <t>RISK-259</t>
+  </si>
+  <si>
+    <t>RISK-260</t>
+  </si>
+  <si>
+    <t>RISK-261</t>
+  </si>
+  <si>
+    <t>RISK-262</t>
+  </si>
+  <si>
+    <t>RISK-263</t>
+  </si>
+  <si>
+    <t>RISK-264</t>
+  </si>
+  <si>
+    <t>RISK-265</t>
+  </si>
+  <si>
+    <t>RISK-266</t>
+  </si>
+  <si>
+    <t>RISK-267</t>
   </si>
 </sst>
 </file>
@@ -72619,10 +72670,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BF876D-F641-43BB-B94B-4F3A69C22F76}">
-  <dimension ref="A1:G257"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229:A257"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
@@ -72659,7 +72711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -72682,7 +72734,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2183</v>
       </c>
@@ -72705,7 +72757,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2184</v>
       </c>
@@ -72728,7 +72780,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2185</v>
       </c>
@@ -72751,7 +72803,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2187</v>
       </c>
@@ -72774,7 +72826,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2188</v>
       </c>
@@ -72797,7 +72849,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2189</v>
       </c>
@@ -72820,7 +72872,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>2190</v>
       </c>
@@ -72843,7 +72895,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2191</v>
       </c>
@@ -72866,7 +72918,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>2192</v>
       </c>
@@ -72889,7 +72941,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>2193</v>
       </c>
@@ -72912,7 +72964,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2194</v>
       </c>
@@ -72935,7 +72987,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>2195</v>
       </c>
@@ -72958,7 +73010,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>2196</v>
       </c>
@@ -72981,7 +73033,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2200</v>
       </c>
@@ -73004,7 +73056,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>2201</v>
       </c>
@@ -73027,7 +73079,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2202</v>
       </c>
@@ -73050,7 +73102,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2203</v>
       </c>
@@ -73073,7 +73125,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>2204</v>
       </c>
@@ -73096,7 +73148,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>2205</v>
       </c>
@@ -73119,7 +73171,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2208</v>
       </c>
@@ -73142,7 +73194,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>2209</v>
       </c>
@@ -73165,7 +73217,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2210</v>
       </c>
@@ -73188,7 +73240,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2211</v>
       </c>
@@ -73211,7 +73263,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2212</v>
       </c>
@@ -73234,7 +73286,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>2213</v>
       </c>
@@ -73257,7 +73309,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2214</v>
       </c>
@@ -73280,7 +73332,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>2215</v>
       </c>
@@ -73303,7 +73355,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2216</v>
       </c>
@@ -73326,7 +73378,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2217</v>
       </c>
@@ -73349,7 +73401,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2218</v>
       </c>
@@ -73372,7 +73424,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>2219</v>
       </c>
@@ -73395,7 +73447,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>2221</v>
       </c>
@@ -73418,7 +73470,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>2222</v>
       </c>
@@ -73441,7 +73493,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2223</v>
       </c>
@@ -73464,7 +73516,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>2224</v>
       </c>
@@ -73487,7 +73539,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>2225</v>
       </c>
@@ -73510,7 +73562,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>2226</v>
       </c>
@@ -73533,7 +73585,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>2227</v>
       </c>
@@ -73556,7 +73608,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2228</v>
       </c>
@@ -73579,7 +73631,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2229</v>
       </c>
@@ -73602,7 +73654,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2230</v>
       </c>
@@ -73625,7 +73677,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>2231</v>
       </c>
@@ -73648,7 +73700,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>2232</v>
       </c>
@@ -73671,7 +73723,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>2233</v>
       </c>
@@ -73694,7 +73746,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>2234</v>
       </c>
@@ -73717,7 +73769,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>2235</v>
       </c>
@@ -73740,7 +73792,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>2236</v>
       </c>
@@ -73763,7 +73815,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2237</v>
       </c>
@@ -73786,7 +73838,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>2238</v>
       </c>
@@ -73809,7 +73861,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>2239</v>
       </c>
@@ -73832,7 +73884,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>2240</v>
       </c>
@@ -73855,7 +73907,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>2241</v>
       </c>
@@ -73878,7 +73930,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>2242</v>
       </c>
@@ -73901,7 +73953,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>2243</v>
       </c>
@@ -73924,7 +73976,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>2244</v>
       </c>
@@ -73947,7 +73999,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>2245</v>
       </c>
@@ -73970,7 +74022,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>2246</v>
       </c>
@@ -73993,7 +74045,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>2247</v>
       </c>
@@ -74016,7 +74068,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>2248</v>
       </c>
@@ -74039,7 +74091,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>2271</v>
       </c>
@@ -74062,7 +74114,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>2272</v>
       </c>
@@ -74085,7 +74137,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>2273</v>
       </c>
@@ -74108,7 +74160,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>2274</v>
       </c>
@@ -74131,7 +74183,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>2275</v>
       </c>
@@ -74154,7 +74206,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>2276</v>
       </c>
@@ -74177,7 +74229,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>2277</v>
       </c>
@@ -74200,7 +74252,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>2278</v>
       </c>
@@ -74223,7 +74275,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>2279</v>
       </c>
@@ -74246,7 +74298,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>2280</v>
       </c>
@@ -74269,7 +74321,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>2281</v>
       </c>
@@ -74292,7 +74344,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>2282</v>
       </c>
@@ -74315,7 +74367,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>2283</v>
       </c>
@@ -74338,7 +74390,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>2284</v>
       </c>
@@ -74361,7 +74413,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>2285</v>
       </c>
@@ -74384,7 +74436,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>2286</v>
       </c>
@@ -74407,7 +74459,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>2287</v>
       </c>
@@ -74430,7 +74482,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>2288</v>
       </c>
@@ -74453,7 +74505,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>2289</v>
       </c>
@@ -74476,7 +74528,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2290</v>
       </c>
@@ -74499,7 +74551,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>2291</v>
       </c>
@@ -74522,7 +74574,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>2292</v>
       </c>
@@ -74545,7 +74597,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>2293</v>
       </c>
@@ -74568,7 +74620,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>2294</v>
       </c>
@@ -74591,7 +74643,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2295</v>
       </c>
@@ -74614,7 +74666,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>2296</v>
       </c>
@@ -74637,7 +74689,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>2297</v>
       </c>
@@ -74660,7 +74712,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2298</v>
       </c>
@@ -74683,7 +74735,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2299</v>
       </c>
@@ -74706,7 +74758,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2300</v>
       </c>
@@ -74729,7 +74781,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>2301</v>
       </c>
@@ -74752,7 +74804,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>2302</v>
       </c>
@@ -74775,7 +74827,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>2303</v>
       </c>
@@ -74798,7 +74850,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>2304</v>
       </c>
@@ -74821,7 +74873,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2305</v>
       </c>
@@ -74844,7 +74896,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2306</v>
       </c>
@@ -74867,7 +74919,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2307</v>
       </c>
@@ -74890,7 +74942,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2308</v>
       </c>
@@ -74913,7 +74965,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>2309</v>
       </c>
@@ -74936,7 +74988,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2310</v>
       </c>
@@ -74959,7 +75011,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>2311</v>
       </c>
@@ -74982,7 +75034,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>2312</v>
       </c>
@@ -75005,7 +75057,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>2313</v>
       </c>
@@ -75028,7 +75080,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2314</v>
       </c>
@@ -75051,7 +75103,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>2315</v>
       </c>
@@ -75074,7 +75126,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>2316</v>
       </c>
@@ -75097,7 +75149,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>2317</v>
       </c>
@@ -75120,7 +75172,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>2321</v>
       </c>
@@ -75143,7 +75195,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>2322</v>
       </c>
@@ -75166,7 +75218,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>2323</v>
       </c>
@@ -75189,7 +75241,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>2324</v>
       </c>
@@ -75212,7 +75264,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>2325</v>
       </c>
@@ -75235,7 +75287,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>2326</v>
       </c>
@@ -75258,7 +75310,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2327</v>
       </c>
@@ -75281,7 +75333,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2328</v>
       </c>
@@ -75304,7 +75356,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>2329</v>
       </c>
@@ -75327,7 +75379,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>2330</v>
       </c>
@@ -75350,7 +75402,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>2331</v>
       </c>
@@ -75373,7 +75425,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>2332</v>
       </c>
@@ -75396,7 +75448,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>2333</v>
       </c>
@@ -75419,7 +75471,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>2334</v>
       </c>
@@ -75442,7 +75494,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>2335</v>
       </c>
@@ -75465,7 +75517,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>2336</v>
       </c>
@@ -75488,7 +75540,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>2337</v>
       </c>
@@ -75511,7 +75563,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>2338</v>
       </c>
@@ -75534,7 +75586,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>2339</v>
       </c>
@@ -75557,7 +75609,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>2340</v>
       </c>
@@ -75580,7 +75632,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>2341</v>
       </c>
@@ -75603,7 +75655,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>2342</v>
       </c>
@@ -75626,7 +75678,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>2343</v>
       </c>
@@ -75649,7 +75701,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>2344</v>
       </c>
@@ -75672,7 +75724,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>2345</v>
       </c>
@@ -75695,7 +75747,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>2346</v>
       </c>
@@ -75718,7 +75770,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>2347</v>
       </c>
@@ -75741,7 +75793,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>2348</v>
       </c>
@@ -75764,7 +75816,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>2349</v>
       </c>
@@ -75787,7 +75839,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>2350</v>
       </c>
@@ -75810,7 +75862,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>2351</v>
       </c>
@@ -75833,7 +75885,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>2352</v>
       </c>
@@ -75856,7 +75908,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>2353</v>
       </c>
@@ -75879,7 +75931,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>2354</v>
       </c>
@@ -75902,7 +75954,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>2355</v>
       </c>
@@ -75925,7 +75977,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>2364</v>
       </c>
@@ -75948,7 +76000,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>2365</v>
       </c>
@@ -75971,7 +76023,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>2366</v>
       </c>
@@ -75994,7 +76046,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>2367</v>
       </c>
@@ -76017,7 +76069,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>2368</v>
       </c>
@@ -76040,7 +76092,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>2369</v>
       </c>
@@ -76063,7 +76115,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>2370</v>
       </c>
@@ -76086,7 +76138,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>2371</v>
       </c>
@@ -76109,7 +76161,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>2372</v>
       </c>
@@ -76132,7 +76184,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>2373</v>
       </c>
@@ -76224,7 +76276,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>2377</v>
       </c>
@@ -76247,7 +76299,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>2378</v>
       </c>
@@ -76270,7 +76322,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>2379</v>
       </c>
@@ -76293,7 +76345,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>2380</v>
       </c>
@@ -76316,7 +76368,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>2381</v>
       </c>
@@ -76339,7 +76391,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>2382</v>
       </c>
@@ -76362,7 +76414,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>2383</v>
       </c>
@@ -76408,7 +76460,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>2385</v>
       </c>
@@ -76427,8 +76479,8 @@
       <c r="F165" s="7" t="s">
         <v>2206</v>
       </c>
-      <c r="G165" s="8" t="s">
-        <v>2363</v>
+      <c r="G165" s="9" t="s">
+        <v>2220</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -76776,7 +76828,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>2414</v>
       </c>
@@ -76784,22 +76836,22 @@
         <v>17</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>575</v>
+        <v>452</v>
       </c>
       <c r="D181" s="25">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>2197</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2206</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>2415</v>
       </c>
@@ -76807,22 +76859,22 @@
         <v>17</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D182" s="25">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>2197</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2206</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>2416</v>
       </c>
@@ -76830,22 +76882,22 @@
         <v>17</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>575</v>
+        <v>23</v>
       </c>
       <c r="D183" s="25">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>2198</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2206</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>2417</v>
       </c>
@@ -76853,22 +76905,22 @@
         <v>17</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="D184" s="25">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>2198</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2206</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>2418</v>
       </c>
@@ -76879,19 +76931,19 @@
         <v>575</v>
       </c>
       <c r="D185" s="25">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>2320</v>
-      </c>
-      <c r="G185" s="8" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2206</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>2419</v>
       </c>
@@ -76899,19 +76951,19 @@
         <v>17</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D186" s="25">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>2320</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>2363</v>
+        <v>2206</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>2220</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -76931,7 +76983,7 @@
         <v>24</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>2180</v>
+        <v>2197</v>
       </c>
       <c r="G187" s="8" t="s">
         <v>2363</v>
@@ -76954,7 +77006,7 @@
         <v>24</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>2180</v>
+        <v>2197</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>2363</v>
@@ -76977,7 +77029,7 @@
         <v>24</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="G189" s="8" t="s">
         <v>2363</v>
@@ -77000,7 +77052,7 @@
         <v>24</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>2363</v>
@@ -77014,7 +77066,7 @@
         <v>17</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="D191" s="25">
         <v>46023</v>
@@ -77022,8 +77074,8 @@
       <c r="E191" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F191" s="5" t="s">
-        <v>2186</v>
+      <c r="F191" s="7" t="s">
+        <v>2320</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>2363</v>
@@ -77037,7 +77089,7 @@
         <v>17</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="D192" s="25">
         <v>46023</v>
@@ -77045,8 +77097,8 @@
       <c r="E192" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F192" s="5" t="s">
-        <v>2186</v>
+      <c r="F192" s="7" t="s">
+        <v>2320</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>2363</v>
@@ -77060,7 +77112,7 @@
         <v>17</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>32</v>
+        <v>575</v>
       </c>
       <c r="D193" s="25">
         <v>46023</v>
@@ -77068,8 +77120,8 @@
       <c r="E193" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>2186</v>
+      <c r="F193" s="7" t="s">
+        <v>2180</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>2363</v>
@@ -77091,8 +77143,8 @@
       <c r="E194" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F194" s="5" t="s">
-        <v>2186</v>
+      <c r="F194" s="7" t="s">
+        <v>2180</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>2363</v>
@@ -77106,7 +77158,7 @@
         <v>17</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>274</v>
+        <v>575</v>
       </c>
       <c r="D195" s="25">
         <v>46023</v>
@@ -77114,8 +77166,8 @@
       <c r="E195" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F195" s="5" t="s">
-        <v>2186</v>
+      <c r="F195" s="7" t="s">
+        <v>2206</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>2363</v>
@@ -77129,7 +77181,7 @@
         <v>17</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>575</v>
+        <v>23</v>
       </c>
       <c r="D196" s="25">
         <v>46023</v>
@@ -77137,8 +77189,8 @@
       <c r="E196" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F196" s="5" t="s">
-        <v>2186</v>
+      <c r="F196" s="7" t="s">
+        <v>2206</v>
       </c>
       <c r="G196" s="8" t="s">
         <v>2363</v>
@@ -77152,7 +77204,7 @@
         <v>17</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="D197" s="25">
         <v>46023</v>
@@ -77178,13 +77230,13 @@
         <v>452</v>
       </c>
       <c r="D198" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F198" s="7" t="s">
-        <v>2197</v>
+      <c r="F198" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>2363</v>
@@ -77198,16 +77250,16 @@
         <v>17</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="D199" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F199" s="7" t="s">
-        <v>2197</v>
+      <c r="F199" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>2363</v>
@@ -77221,16 +77273,16 @@
         <v>17</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="D200" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F200" s="7" t="s">
-        <v>2198</v>
+      <c r="F200" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>2363</v>
@@ -77244,16 +77296,16 @@
         <v>17</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="D201" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F201" s="7" t="s">
-        <v>2198</v>
+      <c r="F201" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>2363</v>
@@ -77267,16 +77319,16 @@
         <v>17</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="D202" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F202" s="7" t="s">
-        <v>2320</v>
+      <c r="F202" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>2363</v>
@@ -77293,13 +77345,13 @@
         <v>193</v>
       </c>
       <c r="D203" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F203" s="7" t="s">
-        <v>2320</v>
+      <c r="F203" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>2363</v>
@@ -77313,16 +77365,16 @@
         <v>17</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="D204" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>2180</v>
+        <v>2199</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>2363</v>
@@ -77336,16 +77388,16 @@
         <v>17</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
       <c r="D205" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>2180</v>
+        <v>2199</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>2363</v>
@@ -77359,16 +77411,16 @@
         <v>17</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>452</v>
+        <v>32</v>
       </c>
       <c r="D206" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>2363</v>
@@ -77382,16 +77434,16 @@
         <v>17</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="D207" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>2363</v>
@@ -77405,16 +77457,16 @@
         <v>17</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="D208" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F208" s="5" t="s">
-        <v>2186</v>
+      <c r="F208" s="7" t="s">
+        <v>2199</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>2363</v>
@@ -77428,16 +77480,16 @@
         <v>17</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="D209" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F209" s="5" t="s">
-        <v>2186</v>
+      <c r="F209" s="7" t="s">
+        <v>2199</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>2363</v>
@@ -77451,16 +77503,16 @@
         <v>17</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D210" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F210" s="5" t="s">
-        <v>2186</v>
+      <c r="F210" s="7" t="s">
+        <v>2199</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>2363</v>
@@ -77474,16 +77526,16 @@
         <v>17</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="D211" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F211" s="5" t="s">
-        <v>2186</v>
+      <c r="F211" s="7" t="s">
+        <v>2198</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>2363</v>
@@ -77497,16 +77549,16 @@
         <v>17</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="D212" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F212" s="5" t="s">
-        <v>2186</v>
+      <c r="F212" s="7" t="s">
+        <v>2198</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>2363</v>
@@ -77520,16 +77572,16 @@
         <v>17</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>575</v>
+        <v>32</v>
       </c>
       <c r="D213" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F213" s="5" t="s">
-        <v>2186</v>
+      <c r="F213" s="7" t="s">
+        <v>2198</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>2363</v>
@@ -77543,16 +77595,16 @@
         <v>17</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>193</v>
+        <v>452</v>
       </c>
       <c r="D214" s="25">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F214" s="5" t="s">
-        <v>2186</v>
+      <c r="F214" s="7" t="s">
+        <v>2198</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>2363</v>
@@ -77569,13 +77621,13 @@
         <v>274</v>
       </c>
       <c r="D215" s="25">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>2363</v>
@@ -77589,10 +77641,10 @@
         <v>17</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="D216" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>24</v>
@@ -77612,16 +77664,16 @@
         <v>17</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="D217" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>2363</v>
@@ -77635,10 +77687,10 @@
         <v>17</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="D218" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>24</v>
@@ -77658,16 +77710,16 @@
         <v>17</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="D219" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>2320</v>
+        <v>2198</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>2363</v>
@@ -77681,10 +77733,10 @@
         <v>17</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="D220" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>24</v>
@@ -77704,16 +77756,16 @@
         <v>17</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="D221" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>2180</v>
+        <v>2320</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>2363</v>
@@ -77727,10 +77779,10 @@
         <v>17</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="D222" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>24</v>
@@ -77750,16 +77802,16 @@
         <v>17</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="D223" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>2206</v>
+        <v>2180</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>2363</v>
@@ -77773,10 +77825,10 @@
         <v>17</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="D224" s="25">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>24</v>
@@ -77796,16 +77848,16 @@
         <v>17</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="D225" s="25">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>2197</v>
+        <v>2206</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>2363</v>
@@ -77822,13 +77874,13 @@
         <v>350</v>
       </c>
       <c r="D226" s="25">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F226" s="7" t="s">
-        <v>2198</v>
+      <c r="F226" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>2363</v>
@@ -77842,16 +77894,16 @@
         <v>17</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D227" s="25">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F227" s="7" t="s">
-        <v>2320</v>
+      <c r="F227" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>2363</v>
@@ -77865,16 +77917,16 @@
         <v>17</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="D228" s="25">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F228" s="7" t="s">
-        <v>2180</v>
+      <c r="F228" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>2363</v>
@@ -77888,16 +77940,16 @@
         <v>17</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="D229" s="25">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F229" s="7" t="s">
-        <v>2206</v>
+      <c r="F229" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G229" s="8" t="s">
         <v>2363</v>
@@ -77911,16 +77963,16 @@
         <v>17</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="D230" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F230" s="7" t="s">
-        <v>2199</v>
+      <c r="F230" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G230" s="8" t="s">
         <v>2363</v>
@@ -77934,16 +77986,16 @@
         <v>17</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="D231" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F231" s="7" t="s">
-        <v>2199</v>
+      <c r="F231" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G231" s="8" t="s">
         <v>2363</v>
@@ -77957,16 +78009,16 @@
         <v>17</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D232" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F232" s="7" t="s">
-        <v>2199</v>
+      <c r="F232" s="5" t="s">
+        <v>2186</v>
       </c>
       <c r="G232" s="8" t="s">
         <v>2363</v>
@@ -77980,10 +78032,10 @@
         <v>17</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="D233" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>24</v>
@@ -78003,10 +78055,10 @@
         <v>17</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>274</v>
+        <v>452</v>
       </c>
       <c r="D234" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>24</v>
@@ -78026,10 +78078,10 @@
         <v>17</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>575</v>
+        <v>32</v>
       </c>
       <c r="D235" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>24</v>
@@ -78049,10 +78101,10 @@
         <v>17</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="D236" s="25">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>24</v>
@@ -78072,7 +78124,7 @@
         <v>17</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="D237" s="25">
         <v>46054</v>
@@ -78095,7 +78147,7 @@
         <v>17</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="D238" s="25">
         <v>46054</v>
@@ -78118,7 +78170,7 @@
         <v>17</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D239" s="25">
         <v>46054</v>
@@ -78141,16 +78193,16 @@
         <v>17</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="D240" s="25">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="G240" s="8" t="s">
         <v>2363</v>
@@ -78164,16 +78216,16 @@
         <v>17</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="D241" s="25">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="G241" s="8" t="s">
         <v>2363</v>
@@ -78187,16 +78239,16 @@
         <v>17</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>575</v>
+        <v>274</v>
       </c>
       <c r="D242" s="25">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="G242" s="8" t="s">
         <v>2363</v>
@@ -78210,16 +78262,16 @@
         <v>17</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="D243" s="25">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="G243" s="8" t="s">
         <v>2363</v>
@@ -78233,7 +78285,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="D244" s="25">
         <v>46082</v>
@@ -78242,7 +78294,7 @@
         <v>24</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>2199</v>
+        <v>2320</v>
       </c>
       <c r="G244" s="8" t="s">
         <v>2363</v>
@@ -78256,7 +78308,7 @@
         <v>17</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>452</v>
+        <v>32</v>
       </c>
       <c r="D245" s="25">
         <v>46082</v>
@@ -78265,7 +78317,7 @@
         <v>24</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>2199</v>
+        <v>2320</v>
       </c>
       <c r="G245" s="8" t="s">
         <v>2363</v>
@@ -78279,7 +78331,7 @@
         <v>17</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="D246" s="25">
         <v>46082</v>
@@ -78288,7 +78340,7 @@
         <v>24</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>2199</v>
+        <v>2180</v>
       </c>
       <c r="G246" s="8" t="s">
         <v>2363</v>
@@ -78302,7 +78354,7 @@
         <v>17</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D247" s="25">
         <v>46082</v>
@@ -78311,7 +78363,7 @@
         <v>24</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>2199</v>
+        <v>2180</v>
       </c>
       <c r="G247" s="8" t="s">
         <v>2363</v>
@@ -78334,7 +78386,7 @@
         <v>24</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
       <c r="G248" s="8" t="s">
         <v>2363</v>
@@ -78348,7 +78400,7 @@
         <v>17</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>575</v>
+        <v>32</v>
       </c>
       <c r="D249" s="25">
         <v>46082</v>
@@ -78357,7 +78409,7 @@
         <v>24</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
       <c r="G249" s="8" t="s">
         <v>2363</v>
@@ -78371,7 +78423,7 @@
         <v>17</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="D250" s="25">
         <v>46082</v>
@@ -78394,10 +78446,10 @@
         <v>17</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D251" s="25">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>24</v>
@@ -78417,10 +78469,10 @@
         <v>17</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>452</v>
+        <v>32</v>
       </c>
       <c r="D252" s="25">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>24</v>
@@ -78440,10 +78492,10 @@
         <v>17</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D253" s="25">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>24</v>
@@ -78463,10 +78515,10 @@
         <v>17</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="D254" s="25">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>24</v>
@@ -78486,10 +78538,10 @@
         <v>17</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>274</v>
+        <v>575</v>
       </c>
       <c r="D255" s="25">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>24</v>
@@ -78509,10 +78561,10 @@
         <v>17</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>575</v>
+        <v>193</v>
       </c>
       <c r="D256" s="25">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>24</v>
@@ -78532,7 +78584,7 @@
         <v>17</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="D257" s="25">
         <v>46113</v>
@@ -78541,16 +78593,274 @@
         <v>24</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="G257" s="8" t="s">
         <v>2363</v>
       </c>
     </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D258" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D259" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="6" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D260" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="6" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D261" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D262" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D263" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D265" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D266" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D267" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D268" s="25">
+        <v>46113</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>2363</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G257" xr:uid="{85BF876D-F641-43BB-B94B-4F3A69C22F76}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G229">
-      <sortCondition ref="D1:D229"/>
+  <autoFilter ref="A1:G268" xr:uid="{85BF876D-F641-43BB-B94B-4F3A69C22F76}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Não iniciado"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G268">
+      <sortCondition ref="D1:D268"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
@@ -78563,20 +78873,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0983D14D-C3B6-4DB0-B9F9-CE625780E301}">
-  <dimension ref="A1:H1048575"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -78815,8 +79125,60 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="1048575" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C1048575" s="1"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D10" s="25">
+        <v>45962</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D11" s="25">
+        <v>46034</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C1048576" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
